--- a/Question_Sets/Programming skills/WooCommerce.xlsx
+++ b/Question_Sets/Programming skills/WooCommerce.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your merchant had purchased a theme and activated it. After installing the WooCommerce plugin, she noticed the theme design changed due to a conflict in WooCommerce styles. Now you are asked to disable WooCommerce styles. How could you do it by modifying functions.php in this theme?', 'ques_type': 2, 'options': ["add_filter( 'before_woocommerce_init', '__return_false' )", "add_filter( 'woocommerce_dequeue_styles', '__return_true' )", "add_filter( 'woocommerce_enqueue_styles', '__return_empty_array' )", "add_filter( 'admin_print_styles', '__return_false' )"], 'score': "add_filter( 'woocommerce_enqueue_styles', '__return_empty_array' )"}, {'title': 'To add delivery time options for a specific state in WooCommerce checkout, as in the following screenshot, you have the code shown below. Which of the following options fills in the blank in the code to get the desired result?add_action(\'woocommerce_review_order_after_shipping\', \'display_delivery_choice\', 20)\n\nfunction display_delivery_choice() {\n    ___________________________\n        $choice = WC()-&amp;gtsession-&amp;gtget(\'delivery_choice\')\n        $delivery_slot = array(\'9am\' =&amp;gt __(\'8AM - 1PM\'), \'2pm\' =&amp;gt __(\'2PM - 6PM\'))\n        \n        echo \'&amp;lttr&amp;gt&amp;ltth&amp;gt\' . __("Delivery time for: ") . __("North Holland") . \'&amp;lt/th&amp;gt&amp;lttd&amp;gt\'        \n        foreach ($delivery_slot as $key =&amp;gt $value) {\n            $checked = $choice == $key ? \'checked="checked"\' : \'\'            \n            echo \'&amp;ltlabel for="\' . $key . \'"&amp;gt&amp;ltinput type="radio" id="\' . $key . \'" value="\' . $key . \'" \' . $checked . \'&amp;gt \' . $value . \'&amp;lt/label&amp;gt\'\n        }\n        echo \'&amp;lt/td&amp;gt&amp;lttr&amp;gt\'\n    }\n}', 'ques_type': 2, 'options': ["if (WC()-&amp;gtcart-&amp;gtget_shipping_state() == 'NH') {", "if (WC()-&amp;gtcustomer-&amp;gtget_shipping_state() == 'NH') {", "if (WC()-&amp;gtcustomer-&amp;gtget_state() == 'NH') {", "if (WC()-&amp;gtcart-&amp;gtget_customer_state() == 'NH') {"], 'score': "if (WC()-&amp;gtcustomer-&amp;gtget_shipping_state() == 'NH') {"}, {'title': 'What is required in header fields for a WooCommerce plugin?', 'ques_type': 2, 'options': ['Domain Path', 'WC tested up to', 'WC requires at least', 'Plugin Name'], 'score': 'Plugin Name'}, {'title': 'On WooCommerce 3.0+, your merchant wants you to retrieve all states of the shopper country in the checkout steps.Which of the following lines of code can help you accomplish this task?', 'ques_type': 2, 'options': ['WC()-&amp;gtcountries-&amp;gtget_states[WC()-&amp;gtcountries-&amp;gtget_base_country()]', 'WC()-&amp;gtcountries-&amp;gtstates[$order-&amp;gtbilling_country][$order-&amp;gtbilling_state]', 'WC()-&amp;gtcountries-&amp;gtget_states($order-&amp;gtget_shipping_country())', 'WC()-&amp;gtcountries-&amp;gtstates[$order-&amp;gtshipping_country][$order-&amp;gtshipping_state]'], 'score': 'WC()-&amp;gtcountries-&amp;gtget_states($order-&amp;gtget_shipping_country())'}]</t>
+    <t>questions = [
+    {
+        "title": "Your merchant had purchased a theme and activated it. After installing the WooCommerce plugin, she noticed the theme design changed due to a conflict in WooCommerce styles. Now you are asked to disable WooCommerce styles. How could you do it by modifying functions.php in this theme?",
+        "ques_type": 2,
+        "options": [
+            "add_filter( 'before_woocommerce_init', '__return_false' )",
+            "add_filter( 'woocommerce_dequeue_styles', '__return_true' )",
+            "add_filter( 'woocommerce_enqueue_styles', '__return_empty_array' )",
+            "add_filter( 'admin_print_styles', '__return_false' )"
+        ],
+        "score": "add_filter( 'woocommerce_enqueue_styles', '__return_empty_array' )"
+    },
+    {
+        "title": "To add delivery time options for a specific state in WooCommerce checkout, as in the following screenshot, you have the code shown below. Which of the following options fills in the blank in the code to get the desired result?add_action('woocommerce_review_order_after_shipping', 'display_delivery_choice', 20)\n\nfunction display_delivery_choice() {\n    ___________________________\n        $choice = WC()-&amp;gtsession-&amp;gtget('delivery_choice')\n        $delivery_slot = array('9am' =&amp;gt __('8AM - 1PM'), '2pm' =&amp;gt __('2PM - 6PM'))\n        \n        echo '&amp;lttr&amp;gt&amp;ltth&amp;gt' . __(\"Delivery time for: \") . __(\"North Holland\") . '&amp;lt/th&amp;gt&amp;lttd&amp;gt'        \n        foreach ($delivery_slot as $key =&amp;gt $value) {\n            $checked = $choice == $key ? 'checked=\"checked\"' : ''            \n            echo '&amp;ltlabel for=\"' . $key . '\"&amp;gt&amp;ltinput type=\"radio\" id=\"' . $key . '\" value=\"' . $key . '\" ' . $checked . '&amp;gt ' . $value . '&amp;lt/label&amp;gt'\n        }\n        echo '&amp;lt/td&amp;gt&amp;lttr&amp;gt'\n    }\n}",
+        "ques_type": 2,
+        "options": [
+            "if (WC()-&amp;gtcart-&amp;gtget_shipping_state() == 'NH') {",
+            "if (WC()-&amp;gtcustomer-&amp;gtget_shipping_state() == 'NH') {",
+            "if (WC()-&amp;gtcustomer-&amp;gtget_state() == 'NH') {",
+            "if (WC()-&amp;gtcart-&amp;gtget_customer_state() == 'NH') {"
+        ],
+        "score": "if (WC()-&amp;gtcustomer-&amp;gtget_shipping_state() == 'NH') {"
+    },
+    {
+        "title": "What is required in header fields for a WooCommerce plugin?",
+        "ques_type": 2,
+        "options": [
+            "Domain Path",
+            "WC tested up to",
+            "WC requires at least",
+            "Plugin Name"
+        ],
+        "score": "Plugin Name"
+    },
+    {
+        "title": "On WooCommerce 3.0+, your merchant wants you to retrieve all states of the shopper country in the checkout steps.Which of the following lines of code can help you accomplish this task?",
+        "ques_type": 2,
+        "options": [
+            "WC()-&amp;gtcountries-&amp;gtget_states[WC()-&amp;gtcountries-&amp;gtget_base_country()]",
+            "WC()-&amp;gtcountries-&amp;gtstates[$order-&amp;gtbilling_country][$order-&amp;gtbilling_state]",
+            "WC()-&amp;gtcountries-&amp;gtget_states($order-&amp;gtget_shipping_country())",
+            "WC()-&amp;gtcountries-&amp;gtstates[$order-&amp;gtshipping_country][$order-&amp;gtshipping_state]"
+        ],
+        "score": "WC()-&amp;gtcountries-&amp;gtget_states($order-&amp;gtget_shipping_country())"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
